--- a/mudakku-palangal.xlsx
+++ b/mudakku-palangal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_projects\templepublic-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEB7DD-ED1E-4296-8249-E081869FAD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB93324-DEB3-4571-A764-460036507843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A1FB6A5-9A73-4D5D-B179-D1CCBB283E47}"/>
   </bookViews>
@@ -121,10 +121,6 @@
 தியாகி என்று சொல்ல கூடியவன்.ருணம்,ரோணம்,சத்ரு.</t>
   </si>
   <si>
-    <t>கர்ம தோஷத்தை வெளிபடுத்த கூடிய இடம்.குறிப்பாக பெண்ணுக்கு 9 ம் பாவம் முடக்கு ஆனால் அவ்வளவு சிறப்பில்லை.
-ஜாதகருடைய வெற்றி/தோல்வி நிர்ணயம் செய்யும் இடம்.தகப்பன் வழி உறவில் உடன் பிறந்த சகோதர்களால் ஏற்படகூடிய நன்மை.பூமியினால் ஏற்படகூடிய நன்மை,</t>
-  </si>
-  <si>
     <t>கர்ம ஸ்தானம் பாவகம்,குறிப்பாக 10 ம் பாவகம் பாதிகபடுவது அவ்வளவு சிறப்பில்லை,முன்ஜென்ம கர்மாவை குறிக்கும் இடம்.நிலையான குடும்பம் நிலையான வருமானம் ஏற்படுவதில் தடை,நிலையான தொழில் தடை. ஜாதகருக்கு ஏதோ ஒரு வகையில் சுகஸ்தானம் பாதிகபடும்,மறைமுக உறவு உண்டு.</t>
   </si>
   <si>
@@ -137,6 +133,10 @@
     <t>அயன சயன போகம்,முன்ஜென்ம கர்மாவை குறிக்கும் இடம்.பிறந்த இடத்தை விட்டு வெளியேறுவது,வெளியூர் வெளிநாடு வாசம் வாழ்க்கையில் முன்னேறவே விடாது.அறிவுரைகள் ஆகாது,அறிவுரை செய்ய கூடாது.
 வாழ்க்கையின் கடைசி பகுதியில் அனுபவிக்க கூடிய துன்பம் பற்றி சொல்ல கூடியது.இவர்களுக்கு சொத்து இருந்தால் உயிர் சாசனம் செய்ய கூடாது.தன் பூர்விகத்திற்கும் பங்கு கூடாது.சிறைகைதிகளாக வாழ்கை முழுவதும் அடைவர்,
 கடைசி கால நோய் நொடிகளை பற்றி சொல்வது.</t>
+  </si>
+  <si>
+    <t>கர்ம தோஷத்தை வெளிபடுத்த கூடிய இடம்.குறிப்பாக பெண்ணுக்கு 9 ம் பாவம் முடக்கு ஆனால் அவ்வளவு சிறப்பில்லை.
+ஜாதகருடைய வெற்றி/தோல்வி நிர்ணயம் செய்யும் இடம்.தகப்பன் வழி உறவில் உடன் பிறந்த சகோதர்களால் ஏற்படகூடிய நன்மை.பூமியினால் ஏற்படகூடிய நன்மை,இல்ல தெய்வம் அனுக்கிரகம் பற்றி கூறும் இடம்,பொருளாதார உயர்வு,அதிகாரத்தை சொல்லும் இடம்.</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08465167-934B-4407-B0A2-D6F37EB3AF52}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,12 +591,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
